--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -506,12 +506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +758,7 @@
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q4" s="8" t="n"/>
+      <c r="Q4" s="8" t="inlineStr"/>
       <c r="R4" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -835,11 +835,7 @@
 - SOP: Fix bug 15h</t>
         </is>
       </c>
-      <c r="Q5" s="8" t="inlineStr">
-        <is>
-          <t>Bằng chứng</t>
-        </is>
-      </c>
+      <c r="Q5" s="8" t="inlineStr"/>
       <c r="R5" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -887,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="8" t="n">
@@ -908,976 +904,1020 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
+          <t>test phòng</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>test team</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>test cá nhân</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>test ct</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="8" t="n"/>
+      <c r="Q7" s="8" t="inlineStr"/>
+      <c r="R7" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>test ko dự án</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>ddfg</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="8" t="inlineStr">
+        <is>
+          <t>aadf</t>
+        </is>
+      </c>
+      <c r="Q8" s="8" t="inlineStr"/>
+      <c r="R8" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="8" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K9" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="8" t="n">
+      <c r="L9" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N9" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="8" t="inlineStr">
+      <c r="O9" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="8" t="inlineStr">
         <is>
           <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q7" s="8" t="inlineStr">
-        <is>
-          <t>Bằng chứng</t>
-        </is>
-      </c>
-      <c r="R7" s="8" t="inlineStr">
+      <c r="Q9" s="8" t="inlineStr"/>
+      <c r="R9" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" s="9" t="n">
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>290</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>240</v>
+      </c>
+      <c r="M10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O8" s="9" t="inlineStr"/>
-      <c r="P8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="N10" s="9" t="n">
+        <v>228</v>
+      </c>
+      <c r="O10" s="9" t="inlineStr"/>
+      <c r="P10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R10" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Nguyễn Thị Thùy Dương</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>duongntt63</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Team Python</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="6" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="6" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="6" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N11" s="6" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="6" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="7" t="inlineStr">
+      <c r="R13" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành theo kế hoạch build MVP</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="I14" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="8" t="inlineStr">
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K14" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="8" t="n">
+      <c r="L14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N14" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="8" t="inlineStr">
+      <c r="O14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="8" t="inlineStr">
         <is>
           <t>Phát triển 32h/tuần
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <t>Thesp</t>
-        </is>
-      </c>
-      <c r="R12" s="8" t="inlineStr">
+      <c r="Q14" s="8" t="inlineStr"/>
+      <c r="R14" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="8" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="8" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K15" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="8" t="n">
+      <c r="L15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="O13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="8" t="inlineStr">
+      <c r="O15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
         <is>
           <t>Thời gian hỗ trợ trung bình 1h/ngày
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="8" t="inlineStr">
-        <is>
-          <t>Thesp</t>
-        </is>
-      </c>
-      <c r="R13" s="8" t="inlineStr">
+      <c r="Q15" s="8" t="inlineStr"/>
+      <c r="R15" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="9" t="n">
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="L16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="9" t="inlineStr"/>
-      <c r="P14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R14" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="O16" s="9" t="inlineStr"/>
+      <c r="P16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành đào tạo theo kế hoạch</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="8" t="inlineStr">
+      <c r="I17" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="8" t="inlineStr">
+      <c r="J17" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K17" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="8" t="n">
+      <c r="L17" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N17" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="8" t="inlineStr">
+      <c r="O17" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="8" t="inlineStr">
         <is>
           <t>Triển khai lớp offline 2h/tuần
 Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
 Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
         </is>
       </c>
-      <c r="Q15" s="8" t="n"/>
-      <c r="R15" s="8" t="inlineStr">
+      <c r="Q17" s="8" t="inlineStr"/>
+      <c r="R17" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="9" t="n">
+    <row r="18">
+      <c r="A18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K18" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="L18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="M18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="N18" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="inlineStr"/>
-      <c r="P16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="O18" s="9" t="inlineStr"/>
+      <c r="P18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R18" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Lê Thanh Lân</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>lanlt23</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Phạm Bá Phúc</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>phucpb4</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="6" t="inlineStr">
+      <c r="K21" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="6" t="inlineStr">
+      <c r="L21" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="6" t="inlineStr">
+      <c r="M21" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N19" s="6" t="inlineStr">
+      <c r="N21" s="6" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="6" t="inlineStr">
+      <c r="P21" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
         <is>
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="7" t="inlineStr">
+      <c r="R21" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>Tất cả ticket xử lý đạt SLA 100% (các ticket đúng hạn xử lý)</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="8" t="inlineStr">
+      <c r="J22" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="8" t="inlineStr">
-        <is>
-          <t>7h/ tháng</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n"/>
-      <c r="R20" s="8" t="inlineStr">
+      <c r="K22" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="8" t="n"/>
+      <c r="Q22" s="8" t="inlineStr"/>
+      <c r="R22" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I21" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J21" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="8" t="inlineStr">
-        <is>
-          <t>Fix bug: 1h/ngày Dialo</t>
-        </is>
-      </c>
-      <c r="Q21" s="8" t="n"/>
-      <c r="R21" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O22" s="9" t="inlineStr"/>
-      <c r="P22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R22" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1908,22 +1948,13 @@
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="O23" s="8" t="n">
         <v/>
       </c>
-      <c r="P23" s="8" t="inlineStr">
-        <is>
-          <t>- Code tính năng 3,5h/ngày
-- Review + Update Code dialo: 4h/ tuần
-- Review + Update Code Happy Connect: 3h/ tuần
-- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
-- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
-- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
-        </is>
-      </c>
-      <c r="Q23" s="8" t="n"/>
+      <c r="P23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr"/>
       <c r="R23" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1962,7 +1993,7 @@
         <v/>
       </c>
       <c r="K24" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L24" s="9" t="n">
         <v>0</v>
@@ -1971,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="O24" s="9" t="inlineStr"/>
       <c r="P24" s="8" t="n">
@@ -2010,12 +2041,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Trần Xuân Lộc</t>
+          <t>Lê Thanh Lân</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>locntx</t>
+          <t>lanlt23</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -2025,7 +2056,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Team FE</t>
+          <t>Team Python</t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -2142,21 +2173,29 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2164,7 +2203,7 @@
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I28" s="8" t="inlineStr">
@@ -2174,11 +2213,11 @@
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K28" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L28" s="8" t="n">
         <v/>
@@ -2187,22 +2226,17 @@
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="O28" s="8" t="n">
         <v/>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>- SOP: 
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h
-- OnCX:
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="n"/>
+          <t>7h/ tháng</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="inlineStr"/>
       <c r="R28" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2213,21 +2247,31 @@
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2235,7 +2279,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
@@ -2245,11 +2289,11 @@
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K29" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L29" s="8" t="n">
         <v/>
@@ -2258,19 +2302,17 @@
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8" t="n">
         <v/>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q29" s="8" t="n"/>
+          <t>Fix bug: 1h/ngày Dialo</t>
+        </is>
+      </c>
+      <c r="Q29" s="8" t="inlineStr"/>
       <c r="R29" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2344,16 +2386,26 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2384,24 +2436,22 @@
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="O31" s="8" t="n">
         <v/>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>- OnCX: 
-    + Làm tính năng: 24.5h
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 3h
-- SOP: 
-    + Làm tính năng: 35.5h 
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 4h"</t>
-        </is>
-      </c>
-      <c r="Q31" s="8" t="n"/>
+          <t>- Code tính năng 3,5h/ngày
+- Review + Update Code dialo: 4h/ tuần
+- Review + Update Code Happy Connect: 3h/ tuần
+- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
+- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
+- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
+        </is>
+      </c>
+      <c r="Q31" s="8" t="inlineStr"/>
       <c r="R31" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2488,12 +2538,12 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Phạm Văn Tấn</t>
+          <t>Nguyễn Trần Xuân Lộc</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>tanpv9</t>
+          <t>locntx</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -2503,7 +2553,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Team Python</t>
+          <t>Team FE</t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
@@ -2625,7 +2675,7 @@
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -2633,8 +2683,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2665,17 +2725,22 @@
         <v/>
       </c>
       <c r="N36" s="8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8" t="n">
         <v/>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
-          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="n"/>
+          <t>- SOP: 
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h
+- OnCX:
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="inlineStr"/>
       <c r="R36" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2691,16 +2756,24 @@
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2708,7 +2781,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I37" s="8" t="inlineStr">
@@ -2718,7 +2791,7 @@
       </c>
       <c r="J37" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K37" s="8" t="n">
@@ -2731,17 +2804,19 @@
         <v/>
       </c>
       <c r="N37" s="8" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8" t="n">
         <v/>
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
-        </is>
-      </c>
-      <c r="Q37" s="8" t="n"/>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="inlineStr"/>
       <c r="R37" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2815,16 +2890,26 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2855,17 +2940,24 @@
         <v/>
       </c>
       <c r="N39" s="8" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8" t="n">
         <v/>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
-        </is>
-      </c>
-      <c r="Q39" s="8" t="n"/>
+          <t>- OnCX: 
+    + Làm tính năng: 24.5h
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 3h
+- SOP: 
+    + Làm tính năng: 35.5h 
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 4h"</t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="inlineStr"/>
       <c r="R39" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2952,12 +3044,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Trọng Dư</t>
+          <t>Phạm Văn Tấn</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>dunt14</t>
+          <t>tanpv9</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -3082,234 +3174,282 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="8" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H44" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J44" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="8" t="inlineStr">
+        <is>
+          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
+        </is>
+      </c>
+      <c r="Q44" s="8" t="inlineStr"/>
+      <c r="R44" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J45" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="8" t="inlineStr">
+        <is>
+          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
+        </is>
+      </c>
+      <c r="Q45" s="8" t="inlineStr"/>
+      <c r="R45" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O46" s="9" t="inlineStr"/>
+      <c r="P46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="8" t="inlineStr">
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I44" s="8" t="inlineStr">
+      <c r="I47" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="8" t="inlineStr">
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K47" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N44" s="8" t="n">
+      <c r="L47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N47" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P44" s="8" t="n"/>
-      <c r="Q44" s="8" t="n"/>
-      <c r="R44" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="O45" s="9" t="inlineStr"/>
-      <c r="P45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R45" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="n"/>
-      <c r="F46" s="8" t="n"/>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H46" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I46" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J46" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P46" s="8" t="n"/>
-      <c r="Q46" s="8" t="n"/>
-      <c r="R46" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D47" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="n"/>
-      <c r="F47" s="8" t="n"/>
-      <c r="G47" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H47" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I47" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J47" s="8" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L47" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M47" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N47" s="8" t="n">
-        <v>0</v>
-      </c>
       <c r="O47" s="8" t="n">
         <v/>
       </c>
-      <c r="P47" s="8" t="n"/>
-      <c r="Q47" s="8" t="n"/>
+      <c r="P47" s="8" t="inlineStr">
+        <is>
+          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
+        </is>
+      </c>
+      <c r="Q47" s="8" t="inlineStr"/>
       <c r="R47" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -3357,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="9" t="n">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="O48" s="9" t="inlineStr"/>
       <c r="P48" s="8" t="n">
@@ -3370,28 +3510,502 @@
         <v/>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Dư</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>dunt14</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K51" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L51" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M51" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N51" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P51" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R51" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg
+</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>132</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="inlineStr"/>
+      <c r="R52" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O53" s="9" t="inlineStr"/>
+      <c r="P53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R53" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="inlineStr">
+        <is>
+          <t>- Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H54" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J54" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N54" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P54" s="8" t="n"/>
+      <c r="Q54" s="8" t="inlineStr"/>
+      <c r="R54" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>- Số bug từ taiga trên tính năng</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I55" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="inlineStr"/>
+      <c r="R55" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O56" s="9" t="inlineStr"/>
+      <c r="P56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R56" s="8" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A39"/>
-    <mergeCell ref="A15"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A44"/>
-    <mergeCell ref="A23"/>
+    <mergeCell ref="A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A47"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1"/>
-    <hyperlink ref="Q7" r:id="rId2"/>
-    <hyperlink ref="Q12" r:id="rId3"/>
-    <hyperlink ref="Q13" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -693,154 +693,175 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>- OnCX: Fix bug 30h
+- SOP: Fix bug 15h</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R4" s="8" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành áp dụng tool nhân sự với các chức năng quản lý và đánh giá chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K5" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="8" t="n">
+      <c r="L5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N5" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="O4" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="8" t="inlineStr">
+      <c r="O5" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t>- Phát triển các tính năng 64h
 - Join họp meeting các bên (nếu có) 8h
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q4" s="8" t="inlineStr"/>
-      <c r="R4" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>- OnCX: Fix bug 30h
-- SOP: Fix bug 15h</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
@@ -874,18 +895,20 @@
         <v/>
       </c>
       <c r="K6" s="9" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>228</v>
-      </c>
-      <c r="O6" s="9" t="inlineStr"/>
+        <v>292</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>262</v>
+      </c>
       <c r="P6" s="8" t="n">
         <v/>
       </c>
@@ -904,1015 +927,1096 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>test phòng</t>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>test team</t>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>test cá nhân</t>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>test ct</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="8" t="n"/>
-      <c r="Q7" s="8" t="inlineStr"/>
-      <c r="R7" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>test ko dự án</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>ddfg</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P8" s="8" t="inlineStr">
-        <is>
-          <t>aadf</t>
-        </is>
-      </c>
-      <c r="Q8" s="8" t="inlineStr"/>
-      <c r="R8" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K7" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N9" s="8" t="n">
+      <c r="L7" s="8" t="n">
+        <v>96</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="O9" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P9" s="8" t="inlineStr">
+      <c r="O7" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="P7" s="8" t="inlineStr">
         <is>
           <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q9" s="8" t="inlineStr"/>
-      <c r="R9" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R7" s="8" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>192</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>292</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>262</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>290</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>240</v>
-      </c>
-      <c r="M10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>228</v>
-      </c>
-      <c r="O10" s="9" t="inlineStr"/>
-      <c r="P10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q10" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R10" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thùy Dương</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>duongntt63</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R11" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nguyễn Thị Thùy Dương</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>duongntt63</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
+        <is>
+          <t>Thời gian hỗ trợ trung bình 1h/ngày
+Review và làm báo cáo cáo 2h/tuần/bạn</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M13" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N13" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P13" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R13" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
 - Hoàn thành theo kế hoạch build MVP</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="G14" s="8" t="inlineStr">
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I14" s="8" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="n">
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N14" s="8" t="n">
+      <c r="L13" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P14" s="8" t="inlineStr">
+      <c r="O13" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
         <is>
           <t>Phát triển 32h/tuần
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q14" s="8" t="inlineStr"/>
-      <c r="R14" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R14" s="8" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
         </is>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+          <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
         </is>
       </c>
       <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="8" t="inlineStr">
-        <is>
-          <t>Thời gian hỗ trợ trung bình 1h/ngày
-Review và làm báo cáo cáo 2h/tuần/bạn</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="inlineStr"/>
-      <c r="R15" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O16" s="9" t="inlineStr"/>
-      <c r="P16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q16" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
 - Hoàn thành đào tạo theo kế hoạch</t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H17" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K17" s="8" t="n">
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N17" s="8" t="n">
+      <c r="L15" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O17" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P17" s="8" t="inlineStr">
+      <c r="O15" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
         <is>
           <t>Triển khai lớp offline 2h/tuần
 Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
 Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
         </is>
       </c>
-      <c r="Q17" s="8" t="inlineStr"/>
-      <c r="R17" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng video record  : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tracking kế hoạch : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O18" s="9" t="inlineStr"/>
-      <c r="P18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R18" s="8" t="n">
-        <v/>
-      </c>
+      <c r="A18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Phạm Bá Phúc</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>phucpb4</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L19" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N19" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P19" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R19" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Phạm Bá Phúc</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>phucpb4</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L21" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M21" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N21" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P21" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R21" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Tất cả ticket xử lý đạt SLA 100% (các ticket đúng hạn xử lý)</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
-      <c r="G22" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H22" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I22" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N22" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P22" s="8" t="n"/>
-      <c r="Q22" s="8" t="inlineStr"/>
-      <c r="R22" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="8" t="n"/>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File issue 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J21" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File thống kê ticket 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành tối ưu hệ thống và sản phẩm core theo feedback trải nghiệm người dùng trong quý 3.2023</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành deploy PROD các tính năng của KHG DKSH trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn và Hoàn thành các module bàn giao core Oncx</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg
+- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
+        </is>
+      </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
@@ -1942,24 +2046,36 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
+        <v>129</v>
       </c>
       <c r="P23" s="8" t="n"/>
-      <c r="Q23" s="8" t="inlineStr"/>
-      <c r="R23" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File bàn giao tính năng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
@@ -1993,18 +2109,20 @@
         <v/>
       </c>
       <c r="K24" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="O24" s="9" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>129</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2236,12 +2354,8 @@
           <t>7h/ tháng</t>
         </is>
       </c>
-      <c r="Q28" s="8" t="inlineStr"/>
-      <c r="R28" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
@@ -2269,7 +2383,7 @@
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G29" s="8" t="inlineStr">
@@ -2296,7 +2410,7 @@
         <v>75</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
@@ -2305,19 +2419,31 @@
         <v>23</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
           <t>Fix bug: 1h/ngày Dialo</t>
         </is>
       </c>
-      <c r="Q29" s="8" t="inlineStr"/>
-      <c r="R29" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q29" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
@@ -2354,15 +2480,17 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O30" s="9" t="inlineStr"/>
+        <v>338</v>
+      </c>
+      <c r="O30" s="9" t="n">
+        <v>326</v>
+      </c>
       <c r="P30" s="8" t="n">
         <v/>
       </c>
@@ -2430,7 +2558,7 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
@@ -2439,7 +2567,7 @@
         <v>154</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v/>
+        <v>160</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
@@ -2451,12 +2579,37 @@
 - Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="inlineStr"/>
-      <c r="R31" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng HappyConnect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
@@ -2490,18 +2643,20 @@
         <v/>
       </c>
       <c r="K32" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O32" s="9" t="inlineStr"/>
+        <v>338</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>326</v>
+      </c>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2670,67 +2825,139 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="8" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="n"/>
+      <c r="R36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G36" s="8" t="inlineStr">
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="8" t="inlineStr">
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="8" t="inlineStr">
+      <c r="I37" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="8" t="inlineStr">
+      <c r="J37" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K37" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N36" s="8" t="n">
+      <c r="L37" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="O36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P36" s="8" t="inlineStr">
+      <c r="O37" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 18h
@@ -2740,88 +2967,37 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
-      <c r="Q36" s="8" t="inlineStr"/>
-      <c r="R36" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G37" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H37" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I37" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J37" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="8" t="n">
-        <v>52</v>
-      </c>
-      <c r="O37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P37" s="8" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q37" s="8" t="inlineStr"/>
-      <c r="R37" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q37" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
@@ -2855,18 +3031,20 @@
         <v/>
       </c>
       <c r="K38" s="9" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O38" s="9" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="O38" s="9" t="n">
+        <v>322</v>
+      </c>
       <c r="P38" s="8" t="n">
         <v/>
       </c>
@@ -2934,7 +3112,7 @@
         <v>100</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="M39" s="8" t="n">
         <v/>
@@ -2943,7 +3121,7 @@
         <v>88</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v/>
+        <v>118</v>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
@@ -2957,12 +3135,37 @@
     + Retro/sprint planning: 4h"</t>
         </is>
       </c>
-      <c r="Q39" s="8" t="inlineStr"/>
-      <c r="R39" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n">
@@ -2996,18 +3199,20 @@
         <v/>
       </c>
       <c r="K40" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N40" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O40" s="9" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="O40" s="9" t="n">
+        <v>322</v>
+      </c>
       <c r="P40" s="8" t="n">
         <v/>
       </c>
@@ -3206,7 +3411,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I44" s="8" t="inlineStr">
@@ -3216,7 +3421,7 @@
       </c>
       <c r="J44" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K44" s="8" t="n">
@@ -3232,19 +3437,15 @@
         <v>16</v>
       </c>
       <c r="O44" s="8" t="n">
-        <v/>
+        <v>19</v>
       </c>
       <c r="P44" s="8" t="inlineStr">
         <is>
           <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
         </is>
       </c>
-      <c r="Q44" s="8" t="inlineStr"/>
-      <c r="R44" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n"/>
@@ -3299,7 +3500,7 @@
         <v>75</v>
       </c>
       <c r="L45" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M45" s="8" t="n">
         <v/>
@@ -3308,19 +3509,31 @@
         <v>36</v>
       </c>
       <c r="O45" s="8" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="P45" s="8" t="inlineStr">
         <is>
           <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
         </is>
       </c>
-      <c r="Q45" s="8" t="inlineStr"/>
-      <c r="R45" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q45" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="n">
@@ -3357,7 +3570,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="9" t="n">
         <v>0</v>
@@ -3365,7 +3578,9 @@
       <c r="N46" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O46" s="9" t="inlineStr"/>
+      <c r="O46" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="P46" s="8" t="n">
         <v/>
       </c>
@@ -3433,7 +3648,7 @@
         <v>100</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v/>
+        <v>92</v>
       </c>
       <c r="M47" s="8" t="n">
         <v/>
@@ -3442,19 +3657,31 @@
         <v>132</v>
       </c>
       <c r="O47" s="8" t="n">
-        <v/>
+        <v>158</v>
       </c>
       <c r="P47" s="8" t="inlineStr">
         <is>
           <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
         </is>
       </c>
-      <c r="Q47" s="8" t="inlineStr"/>
-      <c r="R47" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q47" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="n">
@@ -3491,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0</v>
@@ -3499,7 +3726,9 @@
       <c r="N48" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O48" s="9" t="inlineStr"/>
+      <c r="O48" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="P48" s="8" t="n">
         <v/>
       </c>
@@ -3668,272 +3897,295 @@
       </c>
       <c r="B52" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J53" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O53" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống Kê Bugs : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R53" s="8" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O54" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr">
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E52" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I55" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>132</v>
+      </c>
+      <c r="O55" s="8" t="n">
+        <v>144</v>
+      </c>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ SOP SP20 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>
-        </is>
-      </c>
-      <c r="F52" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G52" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H52" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I52" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J52" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N52" s="8" t="n">
-        <v>132</v>
-      </c>
-      <c r="O52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P52" s="8" t="n"/>
-      <c r="Q52" s="8" t="inlineStr"/>
-      <c r="R52" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O53" s="9" t="inlineStr"/>
-      <c r="P53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R53" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="inlineStr">
-        <is>
-          <t>- Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I54" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J54" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N54" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P54" s="8" t="n"/>
-      <c r="Q54" s="8" t="inlineStr"/>
-      <c r="R54" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>- Số bug từ taiga trên tính năng</t>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G55" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H55" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I55" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J55" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N55" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="O55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P55" s="8" t="n"/>
-      <c r="Q55" s="8" t="inlineStr"/>
-      <c r="R55" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          </r>
+        </is>
+      </c>
+      <c r="R55" s="8" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="n">
@@ -3970,7 +4222,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M56" s="9" t="n">
         <v>0</v>
@@ -3978,7 +4230,9 @@
       <c r="N56" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O56" s="9" t="inlineStr"/>
+      <c r="O56" s="9" t="n">
+        <v>168</v>
+      </c>
       <c r="P56" s="8" t="n">
         <v/>
       </c>
@@ -3990,21 +4244,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A39"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A47"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -520,15 +520,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -860,7 +860,23 @@
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q5" s="8" t="n"/>
+      <c r="Q5" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng Tool NS : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
@@ -895,7 +911,7 @@
         <v/>
       </c>
       <c r="K6" s="9" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>200</v>
@@ -903,12 +919,8 @@
       <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="9" t="n">
-        <v>292</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>262</v>
-      </c>
+      <c r="N6" s="9" t="inlineStr"/>
+      <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="8" t="n">
         <v/>
       </c>
@@ -985,7 +997,7 @@
         <v>63</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
@@ -1057,19 +1069,19 @@
         <v/>
       </c>
       <c r="K8" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="P8" s="8" t="n">
         <v/>
@@ -1239,22 +1251,23 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>Báo cáo được CBQL confirm</t>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành theo kế hoạch build MVP</t>
         </is>
       </c>
       <c r="F12" s="8" t="inlineStr">
@@ -1283,66 +1296,49 @@
         </is>
       </c>
       <c r="K12" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
       </c>
       <c r="N12" s="8" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>Thời gian hỗ trợ trung bình 1h/ngày
-Review và làm báo cáo cáo 2h/tuần/bạn</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
+          <t>Phát triển 32h/tuần
+Báo cáo 1h/tuần</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n"/>
       <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
-- Hoàn thành theo kế hoạch build MVP</t>
+          <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
@@ -1371,27 +1367,43 @@
         </is>
       </c>
       <c r="K13" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
       </c>
       <c r="N13" s="8" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>Phát triển 32h/tuần
-Báo cáo 1h/tuần</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="n"/>
+          <t>Thời gian hỗ trợ trung bình 1h/ngày
+Review và làm báo cáo cáo 2h/tuần/bạn</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1429,17 +1441,13 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="O14" s="9" t="n">
-        <v>207</v>
-      </c>
+      <c r="N14" s="9" t="inlineStr"/>
+      <c r="O14" s="9" t="inlineStr"/>
       <c r="P14" s="8" t="n">
         <v/>
       </c>
@@ -1530,7 +1538,20 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng video record  : </t>
+            <t xml:space="preserve">Tracking kế hoạch : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve"> timeline : </t>
           </r>
           <r>
             <rPr>
@@ -1539,19 +1560,6 @@
             <t xml:space="preserve">https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
 </t>
           </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tracking kế hoạch : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
-</t>
-          </r>
         </is>
       </c>
       <c r="R15" s="8" t="inlineStr"/>
@@ -1588,19 +1596,19 @@
         <v/>
       </c>
       <c r="K16" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="9" t="n">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O16" s="9" t="n">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="P16" s="8" t="n">
         <v/>
@@ -1770,68 +1778,150 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="8" t="n"/>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File thống kê ticket 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="8" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K21" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L21" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="8" t="n">
+      <c r="M21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="O20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="8" t="n"/>
-      <c r="Q20" s="8" t="inlineStr">
+      <c r="O21" s="8" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="P21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1846,86 +1936,17 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
 </t>
           </r>
-        </is>
-      </c>
-      <c r="R20" s="8" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I21" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J21" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="8" t="n"/>
-      <c r="Q21" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">File thống kê ticket 08.2023 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File log time 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XnOM3mYz4rdmVCpbZ3jtifSuUGObN6vw-u6qHyPOUWY/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -1972,12 +1993,8 @@
       <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O22" s="9" t="n">
-        <v>129</v>
-      </c>
+      <c r="N22" s="9" t="inlineStr"/>
+      <c r="O22" s="9" t="inlineStr"/>
       <c r="P22" s="8" t="n">
         <v/>
       </c>
@@ -2055,7 +2072,7 @@
         <v>129</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>129</v>
+        <v>117.5</v>
       </c>
       <c r="P23" s="8" t="n"/>
       <c r="Q23" s="8" t="inlineStr">
@@ -2073,6 +2090,19 @@
             <t xml:space="preserve">https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
 </t>
           </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Mail confirm bàn giao : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/11BXfDEfEBXAZgl6eJsHR1TP2ZWWorphu/view?usp=sharing
+</t>
+          </r>
         </is>
       </c>
       <c r="R23" s="8" t="inlineStr"/>
@@ -2121,7 +2151,7 @@
         <v>184</v>
       </c>
       <c r="O24" s="9" t="n">
-        <v>129</v>
+        <v>163.5</v>
       </c>
       <c r="P24" s="8" t="n">
         <v/>
@@ -2291,27 +2321,29 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G28" s="8" t="inlineStr">
@@ -2321,7 +2353,7 @@
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I28" s="8" t="inlineStr">
@@ -2331,59 +2363,73 @@
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K28" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>7h/ tháng</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="n"/>
+          <t>Fix bug: 1h/ngày Dialo</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G29" s="8" t="inlineStr">
@@ -2393,7 +2439,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
@@ -2403,46 +2449,30 @@
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K29" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>Fix bug: 1h/ngày Dialo</t>
-        </is>
-      </c>
-      <c r="Q29" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
-</t>
-          </r>
-        </is>
-      </c>
+          <t>7h/ tháng</t>
+        </is>
+      </c>
+      <c r="Q29" s="8" t="n"/>
       <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2485,12 +2515,8 @@
       <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="9" t="n">
-        <v>338</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>326</v>
-      </c>
+      <c r="N30" s="9" t="inlineStr"/>
+      <c r="O30" s="9" t="inlineStr"/>
       <c r="P30" s="8" t="n">
         <v/>
       </c>
@@ -2643,19 +2669,19 @@
         <v/>
       </c>
       <c r="K32" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>338</v>
+        <v>184</v>
       </c>
       <c r="O32" s="9" t="n">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="P32" s="8" t="n">
         <v/>
@@ -2825,139 +2851,67 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G36" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H36" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I36" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J36" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N36" s="8" t="n">
-        <v>52</v>
-      </c>
-      <c r="O36" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="P36" s="8" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="n"/>
-      <c r="R36" s="8" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F36" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G37" s="8" t="inlineStr">
+      <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="8" t="inlineStr">
+      <c r="H36" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I37" s="8" t="inlineStr">
+      <c r="I36" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="8" t="inlineStr">
+      <c r="J36" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K36" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L37" s="8" t="n">
+      <c r="L36" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="8" t="n">
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="O37" s="8" t="n">
+      <c r="O36" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="P37" s="8" t="inlineStr">
+      <c r="P36" s="8" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 18h
@@ -2967,21 +2921,8 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
-      <c r="Q37" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
-</t>
-          </r>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
@@ -2995,6 +2936,107 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>
           </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J37" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng Tool nhân sự : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
+</t>
+          </r>
         </is>
       </c>
       <c r="R37" s="8" t="inlineStr"/>
@@ -3031,7 +3073,7 @@
         <v/>
       </c>
       <c r="K38" s="9" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
         <v>200</v>
@@ -3039,12 +3081,8 @@
       <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="n">
-        <v>316</v>
-      </c>
-      <c r="O38" s="9" t="n">
-        <v>322</v>
-      </c>
+      <c r="N38" s="9" t="inlineStr"/>
+      <c r="O38" s="9" t="inlineStr"/>
       <c r="P38" s="8" t="n">
         <v/>
       </c>
@@ -3121,7 +3159,7 @@
         <v>88</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
@@ -3160,7 +3198,7 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
 </t>
           </r>
         </is>
@@ -3199,19 +3237,19 @@
         <v/>
       </c>
       <c r="K40" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N40" s="9" t="n">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="O40" s="9" t="n">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="P40" s="8" t="n">
         <v/>
@@ -3575,12 +3613,8 @@
       <c r="M46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="N46" s="9" t="inlineStr"/>
+      <c r="O46" s="9" t="inlineStr"/>
       <c r="P46" s="8" t="n">
         <v/>
       </c>
@@ -4083,12 +4117,8 @@
       <c r="M54" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O54" s="9" t="n">
-        <v>168</v>
-      </c>
+      <c r="N54" s="9" t="inlineStr"/>
+      <c r="O54" s="9" t="inlineStr"/>
       <c r="P54" s="8" t="n">
         <v/>
       </c>

--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -769,22 +769,22 @@
           </r>
           <r>
             <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
             <t xml:space="preserve">Bằng chứng SOP : </t>
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -870,7 +870,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
 </t>
@@ -914,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
 </t>
@@ -1028,7 +1028,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>
@@ -1397,7 +1397,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
 </t>
@@ -1542,7 +1542,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
 </t>
@@ -1555,7 +1555,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
 </t>
@@ -1847,7 +1847,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
 </t>
@@ -1931,7 +1931,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
 </t>
@@ -1944,7 +1944,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XnOM3mYz4rdmVCpbZ3jtifSuUGObN6vw-u6qHyPOUWY/edit?usp=sharing
 </t>
@@ -2085,7 +2085,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
 </t>
@@ -2098,7 +2098,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://drive.google.com/file/d/11BXfDEfEBXAZgl6eJsHR1TP2ZWWorphu/view?usp=sharing
 </t>
@@ -2396,7 +2396,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
 </t>
@@ -2615,7 +2615,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
 </t>
@@ -2628,7 +2628,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=0
 </t>
@@ -2931,22 +2931,22 @@
           </r>
           <r>
             <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
             <t xml:space="preserve">Bằng chứng OnCX : </t>
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -3004,7 +3004,7 @@
         <v>25</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M37" s="8" t="n">
         <v/>
@@ -3032,7 +3032,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
 </t>
@@ -3076,7 +3076,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>
@@ -3196,7 +3196,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
 </t>
@@ -3564,7 +3564,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
 </t>
@@ -3708,7 +3708,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
 </t>
@@ -4068,7 +4068,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit?usp=sharing
 </t>
@@ -4208,7 +4208,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>

--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
         <v>75</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
@@ -751,7 +751,7 @@
         <v>45</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
@@ -765,26 +765,26 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
+            <t xml:space="preserve">Bằng chứng : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+            <t xml:space="preserve">https://www.google.com/
 </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng SOP : </t>
+            <t xml:space="preserve">Thesp : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+            <t xml:space="preserve">http://172.30.192.84:50113/
 </t>
           </r>
         </is>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -851,7 +851,7 @@
         <v>76</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v>90</v>
+        <v/>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
@@ -866,175 +866,188 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng Tool NS : </t>
+            <t xml:space="preserve">Bằng chứng : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R5" s="8" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="inlineStr"/>
-      <c r="O6" s="9" t="inlineStr"/>
-      <c r="P6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q6" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>96</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>63</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="P7" s="8" t="inlineStr">
-        <is>
-          <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
-- SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
+            <t xml:space="preserve">https://www.google.com/
 </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng SOP : </t>
+            <t xml:space="preserve">Thesp : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+            <t xml:space="preserve">http://172.30.192.84:50113/
 </t>
           </r>
         </is>
       </c>
+      <c r="R5" s="8" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="inlineStr"/>
+      <c r="O6" s="9" t="inlineStr"/>
+      <c r="P6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="8" t="inlineStr">
+        <is>
+          <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
+- SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://www.google.com/
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thesp : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">http://172.30.192.84:50113/
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1072,7 +1085,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -1080,9 +1093,7 @@
       <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="n">
-        <v>184</v>
-      </c>
+      <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1251,30 +1262,21 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
-- Hoàn thành theo kế hoạch build MVP</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1282,7 +1284,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I12" s="8" t="inlineStr">
@@ -1292,276 +1294,272 @@
       </c>
       <c r="J12" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K12" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
       </c>
       <c r="N12" s="8" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>79</v>
+        <v/>
       </c>
       <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>Phát triển 32h/tuần
-Báo cáo 1h/tuần</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="n"/>
-      <c r="R12" s="8" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="O13" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="P13" s="8" t="inlineStr">
         <is>
           <t>Thời gian hỗ trợ trung bình 1h/ngày
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="8" t="inlineStr">
+      <c r="Q12" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">bằng chứng : </t>
+            <t xml:space="preserve">Thesp : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R13" s="8" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9" t="inlineStr"/>
-      <c r="O14" s="9" t="inlineStr"/>
-      <c r="P14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R14" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
-- Hoàn thành đào tạo theo kế hoạch</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>34</v>
-      </c>
-      <c r="P15" s="8" t="inlineStr">
-        <is>
-          <t>Triển khai lớp offline 2h/tuần
-Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
-Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tracking kế hoạch : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+            <t xml:space="preserve">http://172.30.192.84:50113/
 </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve"> timeline : </t>
+            <t xml:space="preserve">Bằng chứng : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
+            <t xml:space="preserve">https://www.google.com/
 </t>
           </r>
         </is>
       </c>
+      <c r="R12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>132</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
+        <is>
+          <t>Phát triển 32h/tuần
+Báo cáo 1h/tuần</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thesp : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">http://172.30.192.84:50113/
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://www.google.com/
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="inlineStr"/>
+      <c r="O14" s="9" t="inlineStr"/>
+      <c r="P14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R14" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
+        <is>
+          <t>Triển khai lớp offline 2h/tuần
+Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
+Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
+        </is>
+      </c>
+      <c r="Q15" s="8" t="n"/>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1599,7 +1597,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1607,9 +1605,7 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="n">
-        <v>173</v>
-      </c>
+      <c r="O16" s="9" t="inlineStr"/>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1646,12 +1642,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Phạm Bá Phúc</t>
+          <t>Lê Thanh Lân</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>phucpb4</t>
+          <t>lanlt23</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1778,29 +1774,21 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>Ticket đúng hạn theo SLA = 100%</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>File tài liệu</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1808,7 +1796,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1818,73 +1806,51 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M20" s="8" t="n">
         <v/>
       </c>
       <c r="N20" s="8" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P20" s="8" t="n"/>
-      <c r="Q20" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">File thống kê ticket 08.2023 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
+        <is>
+          <t>Fix bug: 1h/ngày Dialo</t>
+        </is>
+      </c>
+      <c r="Q20" s="8" t="n"/>
       <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1892,7 +1858,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
@@ -1902,55 +1868,30 @@
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K21" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M21" s="8" t="n">
         <v/>
       </c>
       <c r="N21" s="8" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="P21" s="8" t="n"/>
-      <c r="Q21" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">File issue 08.2023 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">File log time 08.2023 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XnOM3mYz4rdmVCpbZ3jtifSuUGObN6vw-u6qHyPOUWY/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P21" s="8" t="inlineStr">
+        <is>
+          <t>7h/ tháng</t>
+        </is>
+      </c>
+      <c r="Q21" s="8" t="n"/>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1988,7 +1929,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -2013,32 +1954,21 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành tối ưu hệ thống và sản phẩm core theo feedback trải nghiệm người dùng trong quý 3.2023</t>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành deploy PROD các tính năng của KHG DKSH trong tháng 8</t>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn và Hoàn thành các module bàn giao core Oncx</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg
-- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2063,48 +1993,28 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="P23" s="8" t="n"/>
-      <c r="Q23" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">File bàn giao tính năng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Mail confirm bàn giao : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://drive.google.com/file/d/11BXfDEfEBXAZgl6eJsHR1TP2ZWWorphu/view?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P23" s="8" t="inlineStr">
+        <is>
+          <t>- Code tính năng 3,5h/ngày
+- Review + Update Code dialo: 4h/ tuần
+- Review + Update Code Happy Connect: 3h/ tuần
+- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
+- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
+- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
+        </is>
+      </c>
+      <c r="Q23" s="8" t="n"/>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2142,7 +2052,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -2150,9 +2060,7 @@
       <c r="N24" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="9" t="n">
-        <v>163.5</v>
-      </c>
+      <c r="O24" s="9" t="inlineStr"/>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2189,12 +2097,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Lê Thanh Lân</t>
+          <t>Nguyễn Trần Xuân Lộc</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>lanlt23</t>
+          <t>locntx</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -2204,7 +2112,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Team Python</t>
+          <t>Team FE</t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -2326,7 +2234,7 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -2334,18 +2242,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2370,39 +2268,28 @@
         <v>75</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>Fix bug: 1h/ngày Dialo</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- SOP: 
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h
+- OnCX:
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="n"/>
       <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2414,24 +2301,16 @@
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2456,20 +2335,22 @@
         <v>25</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>7h/ tháng</t>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
       <c r="Q29" s="8" t="n"/>
@@ -2510,7 +2391,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2540,26 +2421,16 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2584,57 +2455,30 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>160</v>
+        <v/>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>- Code tính năng 3,5h/ngày
-- Review + Update Code dialo: 4h/ tuần
-- Review + Update Code Happy Connect: 3h/ tuần
-- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
-- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
-- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
-        </is>
-      </c>
-      <c r="Q31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng HappyConnect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+          <t>- OnCX: 
+    + Làm tính năng: 24.5h
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 3h
+- SOP: 
+    + Làm tính năng: 35.5h 
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 4h"</t>
+        </is>
+      </c>
+      <c r="Q31" s="8" t="n"/>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2672,7 +2516,7 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
@@ -2680,9 +2524,7 @@
       <c r="N32" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O32" s="9" t="n">
-        <v>166</v>
-      </c>
+      <c r="O32" s="9" t="inlineStr"/>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2719,12 +2561,12 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Trần Xuân Lộc</t>
+          <t>Phạm Văn Tấn</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>locntx</t>
+          <t>tanpv9</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -2734,7 +2576,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Team FE</t>
+          <t>Team Python</t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
@@ -2856,7 +2698,7 @@
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -2864,18 +2706,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2900,57 +2732,23 @@
         <v>75</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M36" s="8" t="n">
         <v/>
       </c>
       <c r="N36" s="8" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>40</v>
+        <v/>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
-          <t>- SOP: 
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h
-- OnCX:
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng SOP : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="n"/>
       <c r="R36" s="8" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2962,24 +2760,16 @@
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
       <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2987,7 +2777,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I37" s="8" t="inlineStr">
@@ -2997,48 +2787,30 @@
       </c>
       <c r="J37" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K37" s="8" t="n">
         <v>25</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M37" s="8" t="n">
         <v/>
       </c>
       <c r="N37" s="8" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="O37" s="8" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q37" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng Tool nhân sự : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
-</t>
-          </r>
-        </is>
-      </c>
+          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="n"/>
       <c r="R37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3076,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
@@ -3106,26 +2878,16 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
       <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3150,59 +2912,23 @@
         <v>100</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v>96</v>
+        <v/>
       </c>
       <c r="M39" s="8" t="n">
         <v/>
       </c>
       <c r="N39" s="8" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v>126</v>
+        <v/>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>- OnCX: 
-    + Làm tính năng: 24.5h
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 3h
-- SOP: 
-    + Làm tính năng: 35.5h 
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 4h"</t>
-        </is>
-      </c>
-      <c r="Q39" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng SOP : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
-</t>
-          </r>
-        </is>
-      </c>
+          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="n"/>
       <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3240,7 +2966,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
@@ -3248,9 +2974,7 @@
       <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="9" t="n">
-        <v>172</v>
-      </c>
+      <c r="O40" s="9" t="inlineStr"/>
       <c r="P40" s="8" t="n">
         <v/>
       </c>
@@ -3287,12 +3011,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Phạm Văn Tấn</t>
+          <t>Nguyễn Trọng Dư</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>tanpv9</t>
+          <t>dunt14</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -3417,31 +3141,15 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
+      <c r="B44" s="8" t="n"/>
       <c r="C44" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
       <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3449,7 +3157,7 @@
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I44" s="8" t="inlineStr">
@@ -3459,11 +3167,11 @@
       </c>
       <c r="J44" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K44" s="8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L44" s="8" t="n">
         <v/>
@@ -3472,192 +3180,148 @@
         <v/>
       </c>
       <c r="N44" s="8" t="n">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="P44" s="8" t="inlineStr">
-        <is>
-          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P44" s="8" t="n"/>
       <c r="Q44" s="8" t="n"/>
       <c r="R44" s="8" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="A45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="inlineStr"/>
+      <c r="O45" s="9" t="inlineStr"/>
+      <c r="P45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R45" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F45" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="8" t="inlineStr">
+      <c r="I46" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J45" s="8" t="inlineStr">
+      <c r="J46" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K46" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L45" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N45" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="O45" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="P45" s="8" t="inlineStr">
-        <is>
-          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
-        </is>
-      </c>
-      <c r="Q45" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R45" s="8" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M46" s="9" t="n">
+      <c r="L46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N46" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="9" t="inlineStr"/>
-      <c r="O46" s="9" t="inlineStr"/>
-      <c r="P46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R46" s="8" t="n">
-        <v/>
-      </c>
+      <c r="O46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="8" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
       <c r="B47" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="C47" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F47" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
       <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -3675,46 +3339,26 @@
       </c>
       <c r="J47" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="K47" s="8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v>92</v>
+        <v/>
       </c>
       <c r="M47" s="8" t="n">
         <v/>
       </c>
       <c r="N47" s="8" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="O47" s="8" t="n">
-        <v>158</v>
-      </c>
-      <c r="P47" s="8" t="inlineStr">
-        <is>
-          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
-        </is>
-      </c>
-      <c r="Q47" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
-</t>
-          </r>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P47" s="8" t="n"/>
+      <c r="Q47" s="8" t="n"/>
       <c r="R47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3752,17 +3396,15 @@
         <v>100</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N48" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O48" s="9" t="n">
-        <v>184</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O48" s="9" t="inlineStr"/>
       <c r="P48" s="8" t="n">
         <v/>
       </c>
@@ -3773,522 +3415,20 @@
         <v/>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
-      <c r="C49" s="2" t="n"/>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>Nguyễn Trọng Dư</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>dunt14</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="n"/>
-      <c r="R50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E51" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F51" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H51" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I51" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J51" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K51" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L51" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M51" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N51" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O51" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P51" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q51" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R51" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F52" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G52" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H52" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I52" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J52" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M52" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N52" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O52" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="P52" s="8" t="n"/>
-      <c r="Q52" s="8" t="n"/>
-      <c r="R52" s="8" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="inlineStr">
-        <is>
-          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H53" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I53" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J53" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L53" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N53" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="O53" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="P53" s="8" t="n"/>
-      <c r="Q53" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thống Kê Bugs : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R53" s="8" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M54" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9" t="inlineStr"/>
-      <c r="O54" s="9" t="inlineStr"/>
-      <c r="P54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q54" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R54" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G55" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H55" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I55" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J55" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" s="8" t="n">
-        <v>92</v>
-      </c>
-      <c r="M55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N55" s="8" t="n">
-        <v>132</v>
-      </c>
-      <c r="O55" s="8" t="n">
-        <v>144</v>
-      </c>
-      <c r="P55" s="8" t="n"/>
-      <c r="Q55" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Tiến độ SOP SP20 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R55" s="8" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L56" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="M56" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O56" s="9" t="n">
-        <v>168</v>
-      </c>
-      <c r="P56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q56" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R56" s="8" t="n">
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
     <mergeCell ref="A7"/>
-    <mergeCell ref="A55"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47"/>
+    <mergeCell ref="A44"/>
     <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
         <v>75</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
@@ -751,7 +751,7 @@
         <v>45</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
@@ -765,26 +765,26 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://www.google.com/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Thesp : </t>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">http://172.30.192.84:50113/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="8" t="n">
         <v/>
@@ -851,7 +851,7 @@
         <v>76</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v/>
+        <v>90</v>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
@@ -866,26 +866,13 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
+            <t xml:space="preserve">Bằng chứng Tool NS : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://www.google.com/
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thesp : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">http://172.30.192.84:50113/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
 </t>
           </r>
         </is>
@@ -927,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -1001,7 +988,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
@@ -1010,7 +997,7 @@
         <v>63</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v/>
+        <v>82</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
@@ -1024,26 +1011,26 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://www.google.com/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
 </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Thesp : </t>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">http://172.30.192.84:50113/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7/edit#gid=167932837
 </t>
           </r>
         </is>
@@ -1085,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -1093,7 +1080,9 @@
       <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="inlineStr"/>
+      <c r="O8" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1262,21 +1251,30 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
+          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành theo kế hoạch build MVP</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1284,7 +1282,7 @@
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I12" s="8" t="inlineStr">
@@ -1294,81 +1292,60 @@
       </c>
       <c r="J12" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K12" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
       </c>
       <c r="N12" s="8" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v/>
+        <v>79</v>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>Thời gian hỗ trợ trung bình 1h/ngày
-Review và làm báo cáo cáo 2h/tuần/bạn</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thesp : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">http://172.30.192.84:50113/
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://www.google.com/
-</t>
-          </r>
-        </is>
-      </c>
+          <t>Phát triển 32h/tuần
+Báo cáo 1h/tuần</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n"/>
       <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
+          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1376,7 +1353,7 @@
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I13" s="8" t="inlineStr">
@@ -1386,28 +1363,28 @@
       </c>
       <c r="J13" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K13" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
       </c>
       <c r="N13" s="8" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v/>
+        <v>60</v>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>Phát triển 32h/tuần
-Báo cáo 1h/tuần</t>
+          <t>Thời gian hỗ trợ trung bình 1h/ngày
+Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
       <c r="Q13" s="8" t="inlineStr">
@@ -1416,26 +1393,13 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Thesp : </t>
+            <t xml:space="preserve">bằng chứng : </t>
           </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">http://172.30.192.84:50113/
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://www.google.com/
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1w9yKB_CBaAQCbkKN7Mo1FiAoHxidN5Jt/edit?usp=sharing&amp;ouid=112843091477835279872&amp;rtpof=true&amp;sd=true
 </t>
           </r>
         </is>
@@ -1477,7 +1441,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1515,8 +1479,17 @@
           <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>- Có bài toán được confirm (ít nhất 1 bài) từ BGĐ
+- Hoàn thành đào tạo theo kế hoạch</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1524,7 +1497,7 @@
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I15" s="8" t="inlineStr">
@@ -1534,14 +1507,14 @@
       </c>
       <c r="J15" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K15" s="8" t="n">
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1550,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v/>
+        <v>34</v>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
@@ -1559,7 +1532,36 @@
 Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
         </is>
       </c>
-      <c r="Q15" s="8" t="n"/>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tracking kế hoạch : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1P1kTftf0EQJH0LNUvPC_pmsXEEprnEy5GKMLoGFIh3o/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve"> timeline : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/1e5SEm1smFkLTQI-VBmZZZlSQHWE3il0z?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1597,7 +1599,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1605,7 +1607,9 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="inlineStr"/>
+      <c r="O16" s="9" t="n">
+        <v>173</v>
+      </c>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1642,12 +1646,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Lê Thanh Lân</t>
+          <t>Phạm Bá Phúc</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>lanlt23</t>
+          <t>phucpb4</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1774,21 +1778,29 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>Ticket đúng hạn theo SLA = 100%</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>File tài liệu</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1806,51 +1818,73 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M20" s="8" t="n">
         <v/>
       </c>
       <c r="N20" s="8" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="8" t="inlineStr">
-        <is>
-          <t>Fix bug: 1h/ngày Dialo</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n"/>
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="8" t="n"/>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File thống kê ticket 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1SiXrF9ZhJlz6R1z_9fN6Rmd5OK-2FSX-/edit#gid=601451470
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1858,7 +1892,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
@@ -1868,30 +1902,55 @@
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K21" s="8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M21" s="8" t="n">
         <v/>
       </c>
       <c r="N21" s="8" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="8" t="inlineStr">
-        <is>
-          <t>7h/ tháng</t>
-        </is>
-      </c>
-      <c r="Q21" s="8" t="n"/>
+        <v>42.5</v>
+      </c>
+      <c r="P21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File issue 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1dAZzynyk5YtL9WgIpUJZhxdKEE5ulI3m3PHs-G12CyA/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File log time 08.2023 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XnOM3mYz4rdmVCpbZ3jtifSuUGObN6vw-u6qHyPOUWY/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1929,7 +1988,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -1954,21 +2013,32 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+          <t>Hoàn thành tối ưu hệ thống và sản phẩm core theo feedback trải nghiệm người dùng trong quý 3.2023</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành deploy PROD các tính năng của KHG DKSH trong tháng 8</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn và Hoàn thành các module bàn giao core Oncx</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg
+- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1993,28 +2063,48 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P23" s="8" t="inlineStr">
-        <is>
-          <t>- Code tính năng 3,5h/ngày
-- Review + Update Code dialo: 4h/ tuần
-- Review + Update Code Happy Connect: 3h/ tuần
-- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
-- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
-- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
-        </is>
-      </c>
-      <c r="Q23" s="8" t="n"/>
+        <v>117.5</v>
+      </c>
+      <c r="P23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">File bàn giao tính năng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/11YsMbPhnSAihdKC9iBrowak6tA7CYEao
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Mail confirm bàn giao : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/11BXfDEfEBXAZgl6eJsHR1TP2ZWWorphu/view?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2052,7 +2142,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -2060,7 +2150,9 @@
       <c r="N24" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="9" t="inlineStr"/>
+      <c r="O24" s="9" t="n">
+        <v>163.5</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2097,12 +2189,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Trần Xuân Lộc</t>
+          <t>Lê Thanh Lân</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>locntx</t>
+          <t>lanlt23</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -2112,7 +2204,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Team FE</t>
+          <t>Team Python</t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -2234,7 +2326,7 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -2242,8 +2334,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2268,28 +2370,39 @@
         <v>75</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>- SOP: 
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h
-- OnCX:
-    + Fix bug: 18h
-    + Meeting trao đổi: 4h</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="n"/>
+          <t>Fix bug: 1h/ngày Dialo</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=1589973927
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2301,16 +2414,24 @@
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2335,22 +2456,20 @@
         <v>25</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>- Phát triển các tính năng 40h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+          <t>7h/ tháng</t>
         </is>
       </c>
       <c r="Q29" s="8" t="n"/>
@@ -2391,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2421,16 +2540,26 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2455,30 +2584,57 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v/>
+        <v>160</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>- OnCX: 
-    + Làm tính năng: 24.5h
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 3h
-- SOP: 
-    + Làm tính năng: 35.5h 
-    + Họp daily: 10.5h
-    + Retro/sprint planning: 4h"</t>
-        </is>
-      </c>
-      <c r="Q31" s="8" t="n"/>
+          <t>- Code tính năng 3,5h/ngày
+- Review + Update Code dialo: 4h/ tuần
+- Review + Update Code Happy Connect: 3h/ tuần
+- Meeting daily,clear bug: Dialo 0.5h/ngày*23 , HappyConnect 0.5h/ ngày *23
+- Meeting retro, review, planning : 7h dialo, 7h Happy Connect  /tháng
+- Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
+        </is>
+      </c>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1szpz8kekeCkkKAiEYem-xqp7zxYnCbDkbBjsgs5UXng/edit#gid=0
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng HappyConnect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2516,7 +2672,7 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
@@ -2524,7 +2680,9 @@
       <c r="N32" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O32" s="9" t="inlineStr"/>
+      <c r="O32" s="9" t="n">
+        <v>166</v>
+      </c>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2561,12 +2719,12 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Phạm Văn Tấn</t>
+          <t>Nguyễn Trần Xuân Lộc</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>tanpv9</t>
+          <t>locntx</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -2576,7 +2734,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Team Python</t>
+          <t>Team FE</t>
         </is>
       </c>
       <c r="F34" s="2" t="n"/>
@@ -2698,7 +2856,7 @@
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
@@ -2706,8 +2864,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2732,23 +2900,57 @@
         <v>75</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M36" s="8" t="n">
         <v/>
       </c>
       <c r="N36" s="8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v/>
+        <v>40</v>
       </c>
       <c r="P36" s="8" t="inlineStr">
         <is>
-          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="n"/>
+          <t>- SOP: 
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h
+- OnCX:
+    + Fix bug: 18h
+    + Meeting trao đổi: 4h</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1nO_qxA6mORM9dcETV6V1hFuoGK6Y9rIxxDgRdkBNWxM/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R36" s="8" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2760,16 +2962,24 @@
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2777,7 +2987,7 @@
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I37" s="8" t="inlineStr">
@@ -2787,30 +2997,48 @@
       </c>
       <c r="J37" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K37" s="8" t="n">
         <v>25</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M37" s="8" t="n">
         <v/>
       </c>
       <c r="N37" s="8" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="P37" s="8" t="inlineStr">
         <is>
-          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
-        </is>
-      </c>
-      <c r="Q37" s="8" t="n"/>
+          <t>- Phát triển các tính năng 40h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng Tool nhân sự : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1wUgc_mCTmbvtj9_rFS4-pi_q-XyWrf9Z8Xl1k_JfvmI/edit?usp=drive_link
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2848,7 +3076,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M38" s="9" t="n">
         <v>0</v>
@@ -2878,16 +3106,26 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+          <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2912,23 +3150,59 @@
         <v>100</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="M39" s="8" t="n">
         <v/>
       </c>
       <c r="N39" s="8" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8" t="n">
-        <v/>
+        <v>126</v>
       </c>
       <c r="P39" s="8" t="inlineStr">
         <is>
-          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
-        </is>
-      </c>
-      <c r="Q39" s="8" t="n"/>
+          <t>- OnCX: 
+    + Làm tính năng: 24.5h
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 3h
+- SOP: 
+    + Làm tính năng: 35.5h 
+    + Họp daily: 10.5h
+    + Retro/sprint planning: 4h"</t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng SOP : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1DLjc-lC8n9fdbc0kWZ_C_Q_PUNAVQPv7
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2966,7 +3240,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
@@ -2974,7 +3248,9 @@
       <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="9" t="inlineStr"/>
+      <c r="O40" s="9" t="n">
+        <v>172</v>
+      </c>
       <c r="P40" s="8" t="n">
         <v/>
       </c>
@@ -3011,12 +3287,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Nguyễn Trọng Dư</t>
+          <t>Phạm Văn Tấn</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>dunt14</t>
+          <t>tanpv9</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -3141,224 +3417,304 @@
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="8" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H44" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J44" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P44" s="8" t="inlineStr">
+        <is>
+          <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
+        </is>
+      </c>
+      <c r="Q44" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R44" s="8" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J45" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="P45" s="8" t="inlineStr">
+        <is>
+          <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
+        </is>
+      </c>
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="inlineStr"/>
+      <c r="O46" s="9" t="inlineStr"/>
+      <c r="P46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
-      <c r="G44" s="8" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="8" t="inlineStr">
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I44" s="8" t="inlineStr">
+      <c r="I47" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="8" t="inlineStr">
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K47" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N44" s="8" t="n">
+      <c r="L47" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N47" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O44" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P44" s="8" t="n"/>
-      <c r="Q44" s="8" t="n"/>
-      <c r="R44" s="8" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9" t="inlineStr"/>
-      <c r="O45" s="9" t="inlineStr"/>
-      <c r="P45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q45" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R45" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="n"/>
-      <c r="F46" s="8" t="n"/>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H46" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I46" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J46" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="L46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P46" s="8" t="n"/>
-      <c r="Q46" s="8" t="n"/>
-      <c r="R46" s="8" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D47" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="n"/>
-      <c r="F47" s="8" t="n"/>
-      <c r="G47" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H47" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I47" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J47" s="8" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L47" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M47" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N47" s="8" t="n">
-        <v>0</v>
-      </c>
       <c r="O47" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P47" s="8" t="n"/>
-      <c r="Q47" s="8" t="n"/>
+        <v>158</v>
+      </c>
+      <c r="P47" s="8" t="inlineStr">
+        <is>
+          <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
+        </is>
+      </c>
+      <c r="Q47" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit#gid=0
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R47" s="8" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3396,39 +3752,543 @@
         <v>100</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M48" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N48" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O48" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="P48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R48" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Dư</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>dunt14</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K51" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L51" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M51" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N51" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P51" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R51" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>'- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J53" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O53" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống Kê Bugs : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1zYsbMX-Gft2b4pZZdDyLumB5I78fhNHAE3t62baPN6s/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R53" s="8" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="inlineStr"/>
+      <c r="O54" s="9" t="inlineStr"/>
+      <c r="P54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>'100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I55" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N55" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O48" s="9" t="inlineStr"/>
-      <c r="P48" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q48" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R48" s="8" t="n">
+      <c r="O55" s="8" t="n">
+        <v>144</v>
+      </c>
+      <c r="P55" s="8" t="n"/>
+      <c r="Q55" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ SOP SP20 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1JxytDSIKmv1RNPyIQ0Ocwn1-zJwOdqS4aWsx-ZNBl5o/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R55" s="8" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L56" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="O56" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="P56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R56" s="8" t="n">
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
     <mergeCell ref="A7"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A55"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A44"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47"/>
     <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kpiExcelSheet/nhóm L2.xlsx
+++ b/kpiExcelSheet/nhóm L2.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +749,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="8" t="n">
         <v>36</v>
@@ -773,6 +773,19 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
+            <t xml:space="preserve">Bằng chứng OnCX : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Gni-fAQt2MdOLRivN8rM5l_Zyz58T6TD_6eeqKqxGVM/edit?usp=drive_link
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
             <t xml:space="preserve">Bằng chứng SOP : </t>
           </r>
           <r>
@@ -780,19 +793,6 @@
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit?usp=drive_link
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OnCX : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Gni-fAQt2MdOLRivN8rM5l_Zyz58T6TD_6eeqKqxGVM/edit?usp=drive_link
 </t>
           </r>
         </is>
@@ -803,139 +803,139 @@
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tính năng quản lý ASKO, Roadmap vào tool nhân sự trước 23.9.2023</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 24h
+- Join họp meeting các bên (nếu có) 4h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm 
 1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H6" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="8" t="inlineStr">
+      <c r="I6" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="8" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>100%</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="n"/>
-      <c r="Q5" s="8" t="n"/>
-      <c r="R5" s="8" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành áp dụng tính năng quản lý ASKO, Roadmap vào tool nhân sự trước 23.9.2023</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
         </is>
       </c>
       <c r="K6" s="8" t="n">
         <v>25</v>
       </c>
       <c r="L6" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" s="8" t="n">
         <v>0</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>44</v>
       </c>
       <c r="O6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 24h
-- Join họp meeting các bên (nếu có) 4h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
+      <c r="P6" s="8" t="n"/>
       <c r="Q6" s="8" t="n"/>
       <c r="R6" s="8" t="inlineStr"/>
     </row>
@@ -977,7 +977,7 @@
         <v>200</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N7" s="9" t="inlineStr"/>
       <c r="O7" s="9" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>72</v>
@@ -1142,7 +1142,7 @@
         <v>100</v>
       </c>
       <c r="M9" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="n">
         <v>152</v>
@@ -1366,7 +1366,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N13" s="8" t="n">
         <v>17.5</v>
@@ -1470,7 +1470,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N14" s="8" t="n">
         <v>30</v>
@@ -1542,7 +1542,7 @@
         <v>200</v>
       </c>
       <c r="M15" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="9" t="inlineStr"/>
       <c r="O15" s="9" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N16" s="8" t="n">
         <v>104</v>
@@ -1636,6 +1636,19 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
+            <t xml:space="preserve">Timeline triển khai nghiên cứu : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1TQvdtGVzGP2NPNqV0QeECEZDYo0rDKeLA-PvWbVTi24/edit?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
             <t xml:space="preserve">Mail BGD : </t>
           </r>
           <r>
@@ -1658,19 +1671,6 @@
             <t xml:space="preserve">https://drive.google.com/file/d/1ZlhrK3i3wpicB8GH3GdYENcJF9o0vd8C/view
 </t>
           </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Timeline triển khai nghiên cứu : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1TQvdtGVzGP2NPNqV0QeECEZDYo0rDKeLA-PvWbVTi24/edit?usp=sharing
-</t>
-          </r>
         </is>
       </c>
       <c r="R16" s="8" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
         <v>75</v>
       </c>
       <c r="M17" s="9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N17" s="9" t="n">
         <v>151.5</v>
@@ -1939,7 +1939,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N21" s="8" t="n">
         <v>0</v>
@@ -1948,7 +1948,23 @@
         <v>4</v>
       </c>
       <c r="P21" s="8" t="n"/>
-      <c r="Q21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tổ chức giải LQMB : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/drive/folders/1-BFdKSi00coJnOAWnxjrXO3r326SUrNq
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2007,7 +2023,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N22" s="8" t="n">
         <v>9</v>
@@ -2095,7 +2111,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N23" s="8" t="n">
         <v>48</v>
@@ -2161,7 +2177,7 @@
         <v>300</v>
       </c>
       <c r="M24" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="9" t="inlineStr"/>
       <c r="O24" s="9" t="inlineStr"/>
@@ -2235,7 +2251,7 @@
         <v>80</v>
       </c>
       <c r="M25" s="8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N25" s="8" t="n">
         <v>97.5</v>
@@ -2244,7 +2260,36 @@
         <v>97.5</v>
       </c>
       <c r="P25" s="8" t="n"/>
-      <c r="Q25" s="8" t="n"/>
+      <c r="Q25" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">MR deploy LC Prod : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/1IyNgm9SBgQkwx5LXGCy9h9aBlNZPcSyM/view?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Tiến độ story tối ưu cho LC : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">http://172.27.228.249:9000/project/smart-contact-center/taskboard/sprint-43
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2285,7 +2330,7 @@
         <v>80</v>
       </c>
       <c r="M26" s="9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N26" s="9" t="n">
         <v>154.5</v>
@@ -2461,27 +2506,30 @@
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm 
+    1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
+    2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong "</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
+- Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>- Fix bug: 3h/tuần Dialo</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G30" s="8" t="inlineStr">
@@ -2491,7 +2539,7 @@
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I30" s="8" t="inlineStr">
@@ -2501,30 +2549,46 @@
       </c>
       <c r="J30" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L30" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N30" s="8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O30" s="8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P30" s="8" t="inlineStr">
         <is>
-          <t>7h/ tháng</t>
-        </is>
-      </c>
-      <c r="Q30" s="8" t="n"/>
+          <t>3*4</t>
+        </is>
+      </c>
+      <c r="Q30" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1naKeBF6sKWSJWrCzss2tMaR5G4Rwp1-S/edit?usp=drive_link&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R30" s="8" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2581,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="M31" s="8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N31" s="8" t="n">
         <v>0</v>
@@ -2601,30 +2665,27 @@
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm 
-    1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
-    2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong "</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
-- Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>- Fix bug: 3h/tuần Dialo</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G32" s="8" t="inlineStr">
@@ -2634,7 +2695,7 @@
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I32" s="8" t="inlineStr">
@@ -2644,46 +2705,30 @@
       </c>
       <c r="J32" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K32" s="8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L32" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O32" s="8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P32" s="8" t="inlineStr">
         <is>
-          <t>3*4</t>
-        </is>
-      </c>
-      <c r="Q32" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1naKeBF6sKWSJWrCzss2tMaR5G4Rwp1-S/edit?usp=drive_link&amp;ouid=114069912640476124443&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
+          <t>7h/ tháng</t>
+        </is>
+      </c>
+      <c r="Q32" s="8" t="n"/>
       <c r="R32" s="8" t="inlineStr"/>
     </row>
     <row r="33">
@@ -2724,7 +2769,7 @@
         <v>200</v>
       </c>
       <c r="M33" s="9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N33" s="9" t="inlineStr"/>
       <c r="O33" s="9" t="inlineStr"/>
@@ -2795,7 +2840,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34" s="8" t="n">
         <v>133</v>
@@ -2883,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="9" t="n">
         <v>152</v>
@@ -3066,64 +3111,132 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>&gt;=</t>
+        </is>
+      </c>
+      <c r="J39" s="8" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm 
+1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
+2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 
 Và
 - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G39" s="8" t="inlineStr">
+      <c r="G40" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H39" s="8" t="inlineStr">
+      <c r="H40" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I39" s="8" t="inlineStr">
+      <c r="I40" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J39" s="8" t="inlineStr">
+      <c r="J40" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K40" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="L39" s="8" t="n">
+      <c r="L40" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8" t="n">
+      <c r="M40" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N40" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="O39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="8" t="inlineStr">
+      <c r="O40" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="P40" s="8" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 24h
@@ -3133,7 +3246,7 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
-      <c r="Q39" s="8" t="inlineStr">
+      <c r="Q40" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3163,74 +3276,6 @@
           </r>
         </is>
       </c>
-      <c r="R39" s="8" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm 
-1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting
-2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E40" s="8" t="inlineStr">
-        <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
-        </is>
-      </c>
-      <c r="F40" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G40" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H40" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I40" s="8" t="inlineStr">
-        <is>
-          <t>&gt;=</t>
-        </is>
-      </c>
-      <c r="J40" s="8" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L40" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="8" t="n"/>
-      <c r="Q40" s="8" t="n"/>
       <c r="R40" s="8" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3284,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="L41" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8" t="n">
         <v>0</v>
@@ -3340,10 +3385,10 @@
         <v>100</v>
       </c>
       <c r="L42" s="9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M42" s="9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N42" s="9" t="inlineStr"/>
       <c r="O42" s="9" t="inlineStr"/>
@@ -3417,16 +3462,16 @@
         <v>100</v>
       </c>
       <c r="L43" s="8" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M43" s="8" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N43" s="8" t="n">
         <v>72</v>
       </c>
       <c r="O43" s="8" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P43" s="8" t="inlineStr">
         <is>
@@ -3473,457 +3518,349 @@
       <c r="R43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao áp dụng công nghệ mới trong quý 3.2023</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng và demo tính năng theo dõi kết quả nhân sự (tính năng chi tiết, cập nhật chuyên môn) của Tool nhân sự trước 22.8.2023</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G44" s="8" t="inlineStr">
-        <is>
-          <t>quarter</t>
-        </is>
-      </c>
-      <c r="H44" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I44" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="J44" s="8" t="n"/>
-      <c r="K44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="8" t="n"/>
-      <c r="Q44" s="8" t="n"/>
-      <c r="R44" s="8" t="inlineStr"/>
+      <c r="A44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L44" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="O44" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="P44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R44" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n"/>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao áp dụng công nghệ mới trong quý 3.2023</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="n"/>
-      <c r="D45" s="8" t="inlineStr">
-        <is>
-          <t>POC Tool Nhân sự cho nhân sự sử dụng để nhận đánh giá về sản phẩm trước 22.9.2023</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Phạm Văn Tấn</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>tanpv9</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K47" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L47" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M47" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N47" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P47" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R47" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
-        <is>
-          <t>quarter</t>
-        </is>
-      </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H48" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="8" t="inlineStr">
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J48" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="J45" s="8" t="n"/>
-      <c r="K45" s="8" t="n">
+      <c r="K48" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L48" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="M48" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="8" t="n">
+      <c r="N48" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="P48" s="8" t="inlineStr">
+        <is>
+          <t>Mỗi tuần 2-2,5h review tính năng dự án</t>
+        </is>
+      </c>
+      <c r="Q48" s="8" t="n"/>
+      <c r="R48" s="8" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H49" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J49" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N49" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="8" t="n">
+      <c r="O49" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O45" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="8" t="n"/>
-      <c r="Q45" s="8" t="n"/>
-      <c r="R45" s="8" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9" t="n">
-        <v>152</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="P46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q46" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R46" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="n"/>
-      <c r="Q47" s="2" t="n"/>
-      <c r="R47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Phạm Văn Tấn</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>tanpv9</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="n"/>
-      <c r="R48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F49" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H49" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K49" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L49" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M49" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N49" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O49" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P49" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R49" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D50" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F50" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H50" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I50" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J50" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O50" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="P50" s="8" t="inlineStr">
-        <is>
-          <t>Mỗi tuần 2-2,5h review tính năng dự án</t>
-        </is>
-      </c>
-      <c r="Q50" s="8" t="n"/>
-      <c r="R50" s="8" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D51" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="F51" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G51" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H51" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I51" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J51" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L51" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="8" t="n"/>
-      <c r="Q51" s="8" t="inlineStr">
+      <c r="P49" s="8" t="n"/>
+      <c r="Q49" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3940,79 +3877,79 @@
           </r>
         </is>
       </c>
-      <c r="R51" s="8" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="R49" s="8" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và 
 - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
-      <c r="E52" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G52" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H52" s="8" t="inlineStr">
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I52" s="8" t="inlineStr">
+      <c r="I50" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J52" s="8" t="inlineStr">
+      <c r="J50" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K50" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="L52" s="8" t="n">
+      <c r="L50" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="M52" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8" t="n">
+      <c r="M50" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N50" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="O52" s="8" t="n">
+      <c r="O50" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="P52" s="8" t="inlineStr">
+      <c r="P50" s="8" t="inlineStr">
         <is>
           <t>19 * 1,5-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
         </is>
       </c>
-      <c r="Q52" s="8" t="inlineStr">
+      <c r="Q50" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4029,6 +3966,148 @@
           </r>
         </is>
       </c>
+      <c r="R50" s="8" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L51" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M51" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="N51" s="9" t="inlineStr"/>
+      <c r="O51" s="9" t="inlineStr"/>
+      <c r="P51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q51" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R51" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 9</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: - Có bằng chứng dev intergration test/ unittest ở mt dev - Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J52" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>106</v>
+      </c>
+      <c r="P52" s="8" t="inlineStr">
+        <is>
+          <t>19*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
+        </is>
+      </c>
+      <c r="Q52" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit#gid=1481875160
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R52" s="8" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4066,387 +4145,311 @@
         <v>100</v>
       </c>
       <c r="L53" s="9" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="M53" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="O53" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="P53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R53" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="n"/>
+      <c r="Q54" s="2" t="n"/>
+      <c r="R54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Nguyễn Trọng Dư</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>dunt14</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Team Python</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L56" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M56" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N56" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P56" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q56" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R56" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H57" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J57" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L57" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N53" s="9" t="inlineStr"/>
-      <c r="O53" s="9" t="inlineStr"/>
-      <c r="P53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q53" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R53" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 9</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: - Có bằng chứng dev intergration test/ unittest ở mt dev - Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="M57" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O57" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8" t="n"/>
+      <c r="Q57" s="8" t="n"/>
+      <c r="R57" s="8" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H54" s="8" t="inlineStr">
+      <c r="H58" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I54" s="8" t="inlineStr">
+      <c r="I58" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J54" s="8" t="inlineStr">
+      <c r="J58" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K54" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="M54" s="8" t="n">
+      <c r="K58" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L58" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N58" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="8" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="O54" s="8" t="n">
-        <v>106</v>
-      </c>
-      <c r="P54" s="8" t="inlineStr">
-        <is>
-          <t>19*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
-        </is>
-      </c>
-      <c r="Q54" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/12xRR9qnXMPQwbbMVJNh_tgojw_33x8ItlEbBmNyfmlI/edit#gid=1481875160
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R54" s="8" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" s="9" t="n">
-        <v>81</v>
-      </c>
-      <c r="M55" s="9" t="n">
+      <c r="O58" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N55" s="9" t="n">
-        <v>152</v>
-      </c>
-      <c r="O55" s="9" t="n">
-        <v>153</v>
-      </c>
-      <c r="P55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q55" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R55" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="n"/>
-      <c r="Q56" s="2" t="n"/>
-      <c r="R56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Nguyễn Trọng Dư</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>dunt14</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>Team Python</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="n"/>
-      <c r="Q57" s="2" t="n"/>
-      <c r="R57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H58" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K58" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L58" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M58" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N58" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P58" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R58" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="D59" s="8" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hoàn thành xử lý lỗi vận hành đúng hạn &gt;= 90%</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="inlineStr">
-        <is>
-          <t>Tổng số ticket đúng hạn trong tháng/ Tổng số ticket nhận trong tháng</t>
-        </is>
-      </c>
-      <c r="F59" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G59" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H59" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I59" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J59" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K59" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L59" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="M59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="8" t="n"/>
-      <c r="Q59" s="8" t="inlineStr">
+      <c r="P58" s="8" t="n"/>
+      <c r="Q58" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4463,140 +4466,74 @@
           </r>
         </is>
       </c>
-      <c r="R59" s="8" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F60" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G60" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H60" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I60" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J60" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8" t="n"/>
-      <c r="Q60" s="8" t="n"/>
-      <c r="R60" s="8" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="R58" s="8" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm  1. PTSP: với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting 2. Vận hành: Đảm bảo cam kết thời gian khắc phục lỗi từ lúc phát hiện đến khi xử lý xong</t>
         </is>
       </c>
-      <c r="C61" s="8" t="inlineStr">
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK, SmartRouting</t>
         </is>
       </c>
-      <c r="D61" s="8" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t>- Trên môi trường stg số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5  Và - Trên môi trường UAT/ production có critical/important issue &lt;= 1 và lỗi lặp = 0</t>
         </is>
       </c>
-      <c r="E61" s="8" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT/PROD: critical/important issue &lt;= 1 và lỗi lặp = 0
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G61" s="8" t="inlineStr">
+      <c r="G59" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H61" s="8" t="inlineStr">
+      <c r="H59" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I61" s="8" t="inlineStr">
+      <c r="I59" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J61" s="8" t="inlineStr">
+      <c r="J59" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K59" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="L61" s="8" t="n">
+      <c r="L59" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="M61" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="8" t="n">
+      <c r="M59" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N59" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="O61" s="8" t="n">
+      <c r="O59" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="P61" s="8" t="n"/>
-      <c r="Q61" s="8" t="inlineStr">
+      <c r="P59" s="8" t="n"/>
+      <c r="Q59" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4613,130 +4550,130 @@
           </r>
         </is>
       </c>
-      <c r="R61" s="8" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K62" s="9" t="n">
+      <c r="R59" s="8" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K60" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L62" s="9" t="n">
+      <c r="L60" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="M62" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9" t="inlineStr"/>
-      <c r="O62" s="9" t="inlineStr"/>
-      <c r="P62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q62" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R62" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+      <c r="M60" s="9" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="N60" s="9" t="inlineStr"/>
+      <c r="O60" s="9" t="inlineStr"/>
+      <c r="P60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R60" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 9</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP) - #3078M3 - [CHAT] Hiển thị trạng thái kết nối Fanpage realtime trên các tab SOP - #2963M3 - [OPTIMIZE] - Nâng performance đồng bộ tin nhắn kênh FB</t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr">
+      <c r="E61" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G63" s="8" t="inlineStr">
+      <c r="G61" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H63" s="8" t="inlineStr">
+      <c r="H61" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I63" s="8" t="inlineStr">
+      <c r="I61" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J63" s="8" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K61" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L63" s="8" t="n">
+      <c r="L61" s="8" t="n">
         <v>81</v>
       </c>
-      <c r="M63" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="8" t="n">
+      <c r="M61" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="N61" s="8" t="n">
         <v>104.5</v>
       </c>
-      <c r="O63" s="8" t="n">
+      <c r="O61" s="8" t="n">
         <v>114.5</v>
       </c>
-      <c r="P63" s="8" t="n"/>
-      <c r="Q63" s="8" t="inlineStr">
+      <c r="P61" s="8" t="n"/>
+      <c r="Q61" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -4753,61 +4690,61 @@
           </r>
         </is>
       </c>
-      <c r="R63" s="8" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K64" s="9" t="n">
+      <c r="R61" s="8" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K62" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L64" s="9" t="n">
+      <c r="L62" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="M64" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9" t="n">
+      <c r="M62" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="N62" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="O64" s="9" t="n">
+      <c r="O62" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="P64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q64" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R64" s="8" t="n">
+      <c r="P62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R62" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -4820,14 +4757,14 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A34"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A61"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A25"/>
+    <mergeCell ref="A43"/>
     <mergeCell ref="A16"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="A63"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
